--- a/finalproject/dmc/results/dmc-results.xlsx
+++ b/finalproject/dmc/results/dmc-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N1877d\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\code\CPE512\finalproject\dmc\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DC0E9-86D5-447B-8369-C6275F6D9B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A10AAF-8B1C-4779-B319-7049CA721722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C0304D9-9BCE-4ADF-A7E7-2A7EE72DD37E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0304D9-9BCE-4ADF-A7E7-2A7EE72DD37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,11 +117,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Amazon</a:t>
+              <a:t>Alabama Super Computer DMC </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Web Services Execution Times</a:t>
+              <a:t>Execution Times</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -170,7 +170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -239,25 +239,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.13E-4</c:v>
+                  <c:v>1.521E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0205000000000001E-2</c:v>
+                  <c:v>7.7311000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30366500000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31448599999999999</c:v>
+                  <c:v>1.036073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.16476</c:v>
+                  <c:v>4.1402380000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9872030000000001</c:v>
+                  <c:v>15.389371000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.167943000000001</c:v>
+                  <c:v>60.837187999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.698162</c:v>
+                  <c:v>88.719819999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -278,7 +281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -347,25 +350,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.2800000000000004E-4</c:v>
+                  <c:v>5.13E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.073E-2</c:v>
+                  <c:v>2.0205000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15399599999999999</c:v>
+                  <c:v>0.31448599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60286700000000004</c:v>
+                  <c:v>1.16476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6080030000000001</c:v>
+                  <c:v>4.9872030000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.153499</c:v>
+                  <c:v>20.167943000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.835476999999999</c:v>
+                  <c:v>30.698162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,7 +392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -455,25 +461,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.28E-4</c:v>
+                  <c:v>5.2800000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8679999999999999E-3</c:v>
+                  <c:v>1.073E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8051999999999996E-2</c:v>
+                  <c:v>0.15399599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31853999999999999</c:v>
+                  <c:v>0.60286700000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3181719999999999</c:v>
+                  <c:v>2.6080030000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2105509999999997</c:v>
+                  <c:v>10.153499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8509640000000003</c:v>
+                  <c:v>15.835476999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,7 +503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -563,25 +572,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8000000000000001E-4</c:v>
+                  <c:v>4.28E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9099999999999998E-3</c:v>
+                  <c:v>4.8679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53622999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0977E-2</c:v>
+                  <c:v>7.8051999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16873099999999999</c:v>
+                  <c:v>0.31853999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68130599999999997</c:v>
+                  <c:v>1.3181719999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7733189999999999</c:v>
+                  <c:v>5.2105509999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0066199999999998</c:v>
+                  <c:v>7.8509640000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,6 +602,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B2C3-432D-834E-3AFBC014DC4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3659999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0977E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16873099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68130599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7733189999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0066199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3D6-4132-B742-559C3E367CD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,16 +1607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536572</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323659</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>468404</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1818,149 +1941,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B6603-DAF7-4985-BCE5-9E900CC2CDD6}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AJ26" sqref="AJ26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>4</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>8</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
       <c r="B2">
+        <v>1.521E-3</v>
+      </c>
+      <c r="C2">
         <v>5.13E-4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.2800000000000004E-4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4.28E-4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>256</v>
       </c>
       <c r="B3">
+        <v>7.7311000000000005E-2</v>
+      </c>
+      <c r="C3">
         <v>2.0205000000000001E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.073E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4.8679999999999999E-3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.9099999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
+      <c r="B4">
+        <v>0.30366500000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.10363</v>
+      </c>
+      <c r="D4">
+        <v>0.1135</v>
+      </c>
+      <c r="E4">
+        <v>0.53622999999999998</v>
+      </c>
+      <c r="F4">
+        <v>9.3659999999999993E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1024</v>
       </c>
       <c r="B5">
+        <v>1.036073</v>
+      </c>
+      <c r="C5">
         <v>0.31448599999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.15399599999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7.8051999999999996E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4.0977E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2048</v>
       </c>
       <c r="B6">
+        <v>4.1402380000000001</v>
+      </c>
+      <c r="C6">
         <v>1.16476</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.60286700000000004</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.31853999999999999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.16873099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4096</v>
       </c>
       <c r="B7">
+        <v>15.389371000000001</v>
+      </c>
+      <c r="C7">
         <v>4.9872030000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.6080030000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.3181719999999999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.68130599999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8192</v>
       </c>
       <c r="B8">
+        <v>60.837187999999998</v>
+      </c>
+      <c r="C8">
         <v>20.167943000000001</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>10.153499</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.2105509999999997</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.7733189999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10000</v>
       </c>
       <c r="B9">
+        <v>88.719819999999999</v>
+      </c>
+      <c r="C9">
         <v>30.698162</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>15.835476999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.8509640000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.0066199999999998</v>
       </c>
     </row>
